--- a/Dataset/XuatGiao_November.xlsx
+++ b/Dataset/XuatGiao_November.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Workstation\Dropbox\DataCenter\GHTK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Workstation\Dropbox\DataCenter\GHTK\GHTK_Reports\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017ABA0B-EC68-430F-A9C2-D8B588462DF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8CD724-C5BA-4D7F-BF41-4CAA87D5A464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{0C914B2F-D6C9-4168-B074-68219A21C58C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2821" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2820" uniqueCount="121">
   <si>
     <t>SL COD DTEAM</t>
   </si>
@@ -350,9 +350,6 @@
   </si>
   <si>
     <t>DateRec</t>
-  </si>
-  <si>
-    <t>`</t>
   </si>
   <si>
     <t>t243284</t>
@@ -759,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62FFB19E-CFBA-448A-A296-D9537CDE80E2}">
-  <dimension ref="A1:F2724"/>
+  <dimension ref="A1:C2724"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2629" workbookViewId="0">
-      <selection activeCell="C2627" sqref="C2627:C2724"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,7 +769,7 @@
     <col min="3" max="3" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>99</v>
       </c>
@@ -783,7 +780,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>41</v>
       </c>
@@ -794,7 +791,7 @@
         <v>43792.291666666664</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -805,7 +802,7 @@
         <v>43792.291666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>29</v>
       </c>
@@ -816,18 +813,15 @@
         <v>43792.291666666664</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>101</v>
       </c>
       <c r="C5" s="1">
         <v>43792.291666666664</v>
       </c>
-      <c r="F5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -838,7 +832,7 @@
         <v>43792.291666666664</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>33</v>
       </c>
@@ -849,7 +843,7 @@
         <v>43792.291666666664</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -860,7 +854,7 @@
         <v>43792.291666666664</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31</v>
       </c>
@@ -871,7 +865,7 @@
         <v>43792.291666666664</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -882,7 +876,7 @@
         <v>43792.291666666664</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>57</v>
       </c>
@@ -893,7 +887,7 @@
         <v>43792.291666666664</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>46</v>
       </c>
@@ -904,7 +898,7 @@
         <v>43792.291666666664</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>68</v>
       </c>
@@ -915,7 +909,7 @@
         <v>43792.291666666664</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>57</v>
       </c>
@@ -926,7 +920,7 @@
         <v>43792.291666666664</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -937,7 +931,7 @@
         <v>43792.291666666664</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -5818,7 +5812,7 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B462" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C462" s="1">
         <v>43790.291666666664</v>
@@ -6115,7 +6109,7 @@
         <v>0</v>
       </c>
       <c r="B489" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C489" s="1">
         <v>43790.291666666664</v>
@@ -6137,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="B491" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C491" s="1">
         <v>43790.291666666664</v>
@@ -6170,7 +6164,7 @@
         <v>0</v>
       </c>
       <c r="B494" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C494" s="1">
         <v>43790.291666666664</v>
@@ -7223,7 +7217,7 @@
         <v>0</v>
       </c>
       <c r="B590" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C590" s="1">
         <v>43790.583333333336</v>
@@ -7245,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="B592" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C592" s="1">
         <v>43790.583333333336</v>
@@ -7278,7 +7272,7 @@
         <v>0</v>
       </c>
       <c r="B595" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C595" s="1">
         <v>43790.583333333336</v>
@@ -8331,7 +8325,7 @@
         <v>0</v>
       </c>
       <c r="B691" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C691" s="1">
         <v>43789.291666666664</v>
@@ -8353,7 +8347,7 @@
         <v>0</v>
       </c>
       <c r="B693" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C693" s="1">
         <v>43789.291666666664</v>
@@ -8386,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="B696" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C696" s="1">
         <v>43789.291666666664</v>
@@ -9439,7 +9433,7 @@
         <v>0</v>
       </c>
       <c r="B792" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C792" s="1">
         <v>43789.583333333336</v>
@@ -9461,7 +9455,7 @@
         <v>0</v>
       </c>
       <c r="B794" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C794" s="1">
         <v>43789.583333333336</v>
@@ -9494,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="B797" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C797" s="1">
         <v>43789.583333333336</v>
@@ -10539,7 +10533,7 @@
         <v>0</v>
       </c>
       <c r="B892" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C892" s="1">
         <v>43788.291666608799</v>
@@ -10561,7 +10555,7 @@
         <v>0</v>
       </c>
       <c r="B894" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C894" s="1">
         <v>43788.291666608799</v>
@@ -10594,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="B897" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C897" s="1">
         <v>43788.291666608799</v>
@@ -11639,7 +11633,7 @@
         <v>0</v>
       </c>
       <c r="B992" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C992" s="1">
         <v>43788.583333333336</v>
@@ -11661,7 +11655,7 @@
         <v>0</v>
       </c>
       <c r="B994" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C994" s="1">
         <v>43788.583333333336</v>
@@ -11694,7 +11688,7 @@
         <v>0</v>
       </c>
       <c r="B997" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C997" s="1">
         <v>43788.583333333336</v>
@@ -11856,7 +11850,7 @@
         <v>43</v>
       </c>
       <c r="B1012" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C1012" s="1">
         <v>43787.291666666664</v>
@@ -12747,7 +12741,7 @@
         <v>0</v>
       </c>
       <c r="B1093" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1093" s="1">
         <v>43787.291666666664</v>
@@ -12769,7 +12763,7 @@
         <v>0</v>
       </c>
       <c r="B1095" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C1095" s="1">
         <v>43787.291666666664</v>
@@ -12802,7 +12796,7 @@
         <v>0</v>
       </c>
       <c r="B1098" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C1098" s="1">
         <v>43787.291666666664</v>
@@ -13847,7 +13841,7 @@
         <v>0</v>
       </c>
       <c r="B1193" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1193" s="1">
         <v>43787.583333333336</v>
@@ -13869,7 +13863,7 @@
         <v>0</v>
       </c>
       <c r="B1195" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C1195" s="1">
         <v>43787.583333333336</v>
@@ -13902,7 +13896,7 @@
         <v>0</v>
       </c>
       <c r="B1198" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C1198" s="1">
         <v>43787.583333333336</v>
@@ -14936,7 +14930,7 @@
         <v>0</v>
       </c>
       <c r="B1292" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1292" s="1">
         <v>43785.583333333336</v>
@@ -14958,7 +14952,7 @@
         <v>0</v>
       </c>
       <c r="B1294" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C1294" s="1">
         <v>43785.583333333336</v>
@@ -14991,7 +14985,7 @@
         <v>0</v>
       </c>
       <c r="B1297" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C1297" s="1">
         <v>43785.583333333336</v>
@@ -15112,7 +15106,7 @@
         <v>35</v>
       </c>
       <c r="B1308" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C1308" s="1">
         <v>43785.291666666664</v>
@@ -15321,7 +15315,7 @@
         <v>0</v>
       </c>
       <c r="B1327" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C1327" s="1">
         <v>43785.291666666664</v>
@@ -15651,7 +15645,7 @@
         <v>0</v>
       </c>
       <c r="B1357" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C1357" s="1">
         <v>43785.291666666664</v>
@@ -16069,7 +16063,7 @@
         <v>0</v>
       </c>
       <c r="B1395" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1395" s="1">
         <v>43785.291666666664</v>
@@ -16091,7 +16085,7 @@
         <v>0</v>
       </c>
       <c r="B1397" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C1397" s="1">
         <v>43785.291666666664</v>
@@ -16124,7 +16118,7 @@
         <v>0</v>
       </c>
       <c r="B1400" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C1400" s="1">
         <v>43785.291666666664</v>
@@ -16437,7 +16431,7 @@
         <v>0</v>
       </c>
       <c r="B1429" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C1429" s="1">
         <v>43784.291666666664</v>
@@ -16767,7 +16761,7 @@
         <v>0</v>
       </c>
       <c r="B1459" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C1459" s="1">
         <v>43784.291666666664</v>
@@ -17185,7 +17179,7 @@
         <v>0</v>
       </c>
       <c r="B1497" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1497" s="1">
         <v>43784.291666666664</v>
@@ -17207,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="B1499" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C1499" s="1">
         <v>43784.291666666664</v>
@@ -17240,7 +17234,7 @@
         <v>0</v>
       </c>
       <c r="B1502" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C1502" s="1">
         <v>43784.291666666664</v>
@@ -17559,7 +17553,7 @@
         <v>0</v>
       </c>
       <c r="B1531" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C1531" s="1">
         <v>43784.583333333336</v>
@@ -17889,7 +17883,7 @@
         <v>0</v>
       </c>
       <c r="B1561" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C1561" s="1">
         <v>43784.583333333336</v>
@@ -18307,7 +18301,7 @@
         <v>0</v>
       </c>
       <c r="B1599" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1599" s="1">
         <v>43784.583333333336</v>
@@ -18329,7 +18323,7 @@
         <v>0</v>
       </c>
       <c r="B1601" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C1601" s="1">
         <v>43784.583333333336</v>
@@ -18348,7 +18342,7 @@
     </row>
     <row r="1603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1603" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C1603" s="1">
         <v>43784.583333333336</v>
@@ -18370,7 +18364,7 @@
         <v>0</v>
       </c>
       <c r="B1605" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C1605" s="1">
         <v>43784.583333333336</v>
@@ -18675,7 +18669,7 @@
         <v>58</v>
       </c>
       <c r="B1633" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C1633" s="1">
         <v>43783.291666666664</v>
@@ -19005,7 +18999,7 @@
         <v>0</v>
       </c>
       <c r="B1663" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C1663" s="1">
         <v>43783.291666666664</v>
@@ -19423,7 +19417,7 @@
         <v>0</v>
       </c>
       <c r="B1701" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1701" s="1">
         <v>43783.291666666664</v>
@@ -19445,7 +19439,7 @@
         <v>0</v>
       </c>
       <c r="B1703" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C1703" s="1">
         <v>43783.291666666664</v>
@@ -19478,7 +19472,7 @@
         <v>0</v>
       </c>
       <c r="B1706" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C1706" s="1">
         <v>43783.291666666664</v>
@@ -19590,7 +19584,7 @@
     </row>
     <row r="1717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1717" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C1717" s="1">
         <v>43783.583333333336</v>
@@ -19609,7 +19603,7 @@
     </row>
     <row r="1719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1719" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C1719" s="1">
         <v>43783.583333333336</v>
@@ -19807,7 +19801,7 @@
         <v>0</v>
       </c>
       <c r="B1737" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C1737" s="1">
         <v>43783.583333333336</v>
@@ -20137,7 +20131,7 @@
         <v>0</v>
       </c>
       <c r="B1767" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C1767" s="1">
         <v>43783.583333333336</v>
@@ -20555,7 +20549,7 @@
         <v>0</v>
       </c>
       <c r="B1805" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1805" s="1">
         <v>43783.583333333336</v>
@@ -20577,7 +20571,7 @@
         <v>0</v>
       </c>
       <c r="B1807" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C1807" s="1">
         <v>43783.583333333336</v>
@@ -20610,7 +20604,7 @@
         <v>5</v>
       </c>
       <c r="B1810" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C1810" s="1">
         <v>43783.583333333336</v>
@@ -20920,7 +20914,7 @@
         <v>0</v>
       </c>
       <c r="B1839" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C1839" s="1">
         <v>43782.583333333336</v>
@@ -21250,7 +21244,7 @@
         <v>0</v>
       </c>
       <c r="B1869" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C1869" s="1">
         <v>43782.583333333336</v>
@@ -21668,7 +21662,7 @@
         <v>0</v>
       </c>
       <c r="B1907" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1907" s="1">
         <v>43782.583333333336</v>
@@ -21676,7 +21670,7 @@
     </row>
     <row r="1908" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1908" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C1908" s="1">
         <v>43782.583333333336</v>
@@ -21684,7 +21678,7 @@
     </row>
     <row r="1909" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1909" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C1909" s="1">
         <v>43782.583333333336</v>
@@ -21706,7 +21700,7 @@
         <v>0</v>
       </c>
       <c r="B1911" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C1911" s="1">
         <v>43782.583333333336</v>
@@ -21739,7 +21733,7 @@
         <v>0</v>
       </c>
       <c r="B1914" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C1914" s="1">
         <v>43782.583333333336</v>
@@ -21857,7 +21851,7 @@
     </row>
     <row r="1925" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1925" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C1925" s="1">
         <v>43782.291666666664</v>
@@ -21876,7 +21870,7 @@
     </row>
     <row r="1927" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1927" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C1927" s="1">
         <v>43782.291666666664</v>
@@ -22052,7 +22046,7 @@
         <v>51</v>
       </c>
       <c r="B1943" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C1943" s="1">
         <v>43782.291666666664</v>
@@ -22382,7 +22376,7 @@
         <v>0</v>
       </c>
       <c r="B1973" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C1973" s="1">
         <v>43782.291666666664</v>
@@ -22800,7 +22794,7 @@
         <v>0</v>
       </c>
       <c r="B2011" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2011" s="1">
         <v>43782.291666666664</v>
@@ -22822,7 +22816,7 @@
         <v>0</v>
       </c>
       <c r="B2013" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2013" s="1">
         <v>43782.291666666664</v>
@@ -22855,7 +22849,7 @@
         <v>0</v>
       </c>
       <c r="B2016" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2016" s="1">
         <v>43782.291666666664</v>
@@ -22995,7 +22989,7 @@
     </row>
     <row r="2029" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2029" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2029" s="1">
         <v>43781.291666666664</v>
@@ -23160,7 +23154,7 @@
         <v>64</v>
       </c>
       <c r="B2044" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2044" s="1">
         <v>43781.291666666664</v>
@@ -23201,7 +23195,7 @@
     </row>
     <row r="2048" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2048" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2048" s="1">
         <v>43781.291666666664</v>
@@ -23498,7 +23492,7 @@
         <v>0</v>
       </c>
       <c r="B2075" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2075" s="1">
         <v>43781.291666666664</v>
@@ -23905,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="B2112" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2112" s="1">
         <v>43781.291666666664</v>
@@ -23935,7 +23929,7 @@
         <v>0</v>
       </c>
       <c r="B2115" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2115" s="1">
         <v>43781.291666666664</v>
@@ -23968,7 +23962,7 @@
         <v>0</v>
       </c>
       <c r="B2118" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2118" s="1">
         <v>43781.291666666664</v>
@@ -24251,7 +24245,7 @@
     </row>
     <row r="2144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2144" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2144" s="1">
         <v>43781.583333333336</v>
@@ -24273,7 +24267,7 @@
         <v>13</v>
       </c>
       <c r="B2146" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2146" s="1">
         <v>43781.583333333336</v>
@@ -24603,7 +24597,7 @@
         <v>0</v>
       </c>
       <c r="B2176" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2176" s="1">
         <v>43781.583333333336</v>
@@ -24941,7 +24935,7 @@
     </row>
     <row r="2207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2207" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2207" s="1">
         <v>43781.583333333336</v>
@@ -25018,7 +25012,7 @@
         <v>0</v>
       </c>
       <c r="B2214" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2214" s="1">
         <v>43781.583333333336</v>
@@ -25040,7 +25034,7 @@
         <v>0</v>
       </c>
       <c r="B2216" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2216" s="1">
         <v>43781.583333333336</v>
@@ -25073,7 +25067,7 @@
         <v>0</v>
       </c>
       <c r="B2219" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2219" s="1">
         <v>43781.583333333336</v>
@@ -25386,7 +25380,7 @@
         <v>62</v>
       </c>
       <c r="B2248" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2248" s="1">
         <v>43780.291666666664</v>
@@ -25716,7 +25710,7 @@
         <v>0</v>
       </c>
       <c r="B2278" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2278" s="1">
         <v>43780.291666666664</v>
@@ -25966,7 +25960,7 @@
     </row>
     <row r="2301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2301" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2301" s="1">
         <v>43780.291666666664</v>
@@ -26131,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2316" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2316" s="1">
         <v>43780.291666666664</v>
@@ -26153,7 +26147,7 @@
         <v>0</v>
       </c>
       <c r="B2318" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2318" s="1">
         <v>43780.291666666664</v>
@@ -26186,7 +26180,7 @@
         <v>0</v>
       </c>
       <c r="B2321" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2321" s="1">
         <v>43780.291666666664</v>
@@ -26483,7 +26477,7 @@
         <v>0</v>
       </c>
       <c r="B2348" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2348" s="1">
         <v>43780.583333333336</v>
@@ -26813,7 +26807,7 @@
         <v>0</v>
       </c>
       <c r="B2378" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2378" s="1">
         <v>43780.583333333336</v>
@@ -27220,7 +27214,7 @@
         <v>0</v>
       </c>
       <c r="B2415" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2415" s="1">
         <v>43780.583333333336</v>
@@ -27242,7 +27236,7 @@
         <v>0</v>
       </c>
       <c r="B2417" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2417" s="1">
         <v>43780.583333333336</v>
@@ -27275,7 +27269,7 @@
         <v>0</v>
       </c>
       <c r="B2420" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2420" s="1">
         <v>43780.583333333336</v>
@@ -27572,7 +27566,7 @@
         <v>50</v>
       </c>
       <c r="B2447" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2447" s="1">
         <v>43778.291666666664</v>
@@ -27902,7 +27896,7 @@
         <v>25</v>
       </c>
       <c r="B2477" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2477" s="1">
         <v>43778.291666666664</v>
@@ -28309,7 +28303,7 @@
         <v>0</v>
       </c>
       <c r="B2514" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2514" s="1">
         <v>43778.291666666664</v>
@@ -28331,7 +28325,7 @@
         <v>0</v>
       </c>
       <c r="B2516" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2516" s="1">
         <v>43778.291666666664</v>
@@ -28364,7 +28358,7 @@
         <v>0</v>
       </c>
       <c r="B2519" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2519" s="1">
         <v>43778.291666666664</v>
@@ -28661,7 +28655,7 @@
         <v>15</v>
       </c>
       <c r="B2546" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2546" s="1">
         <v>43778.583333333336</v>
@@ -28991,7 +28985,7 @@
         <v>0</v>
       </c>
       <c r="B2576" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2576" s="1">
         <v>43778.583333333336</v>
@@ -29398,7 +29392,7 @@
         <v>0</v>
       </c>
       <c r="B2613" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2613" s="1">
         <v>43778.583333333336</v>
@@ -29420,7 +29414,7 @@
         <v>0</v>
       </c>
       <c r="B2615" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2615" s="1">
         <v>43778.583333333336</v>
@@ -29453,7 +29447,7 @@
         <v>0</v>
       </c>
       <c r="B2618" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2618" s="1">
         <v>43778.583333333336</v>
@@ -29750,7 +29744,7 @@
         <v>0</v>
       </c>
       <c r="B2645" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2645" s="1">
         <v>43777.583333333336</v>
@@ -30080,7 +30074,7 @@
         <v>0</v>
       </c>
       <c r="B2675" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2675" s="1">
         <v>43777.583333333336</v>
@@ -30487,7 +30481,7 @@
         <v>0</v>
       </c>
       <c r="B2712" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2712" s="1">
         <v>43777.583333333336</v>
@@ -30509,7 +30503,7 @@
         <v>0</v>
       </c>
       <c r="B2714" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2714" s="1">
         <v>43777.583333333336</v>
@@ -30542,7 +30536,7 @@
         <v>0</v>
       </c>
       <c r="B2717" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2717" s="1">
         <v>43777.583333333336</v>
@@ -31006,7 +31000,7 @@
         <v>19</v>
       </c>
       <c r="U2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V2" t="s">
         <v>20</v>
@@ -31096,7 +31090,7 @@
         <v>52</v>
       </c>
       <c r="AY2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AZ2" t="s">
         <v>53</v>
@@ -31207,13 +31201,13 @@
         <v>88</v>
       </c>
       <c r="CJ2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CK2" t="s">
         <v>89</v>
       </c>
       <c r="CL2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CM2" t="s">
         <v>90</v>
@@ -31222,7 +31216,7 @@
         <v>91</v>
       </c>
       <c r="CO2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CP2" t="s">
         <v>92</v>
